--- a/badges/ranking.xlsx
+++ b/badges/ranking.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/659ba2991ee3cc81/Documentos/GitHub/ranking-lp1-2023.1/badges/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{47B5A05B-CB4D-4391-BB80-C0BF18498127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6164113-59C6-46E5-B252-5A6B58BF6781}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{47B5A05B-CB4D-4391-BB80-C0BF18498127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B48732A9-5F49-449D-BB3B-F056192D0545}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="0" windowWidth="20325" windowHeight="10920" xr2:uid="{AB370894-1FF5-4D19-AD46-DC7BBA870C2C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AB370894-1FF5-4D19-AD46-DC7BBA870C2C}"/>
   </bookViews>
   <sheets>
     <sheet name="ranking_csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ranking_csv!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ranking_csv!$A$1:$R$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>NICKNAME</t>
   </si>
@@ -93,6 +93,24 @@
   </si>
   <si>
     <t>default.png</t>
+  </si>
+  <si>
+    <t>LPS GASTOS</t>
+  </si>
+  <si>
+    <t>COLAR</t>
+  </si>
+  <si>
+    <t>RITUAL</t>
+  </si>
+  <si>
+    <t>POCAO</t>
+  </si>
+  <si>
+    <t>PAPIRO</t>
+  </si>
+  <si>
+    <t>CAPA</t>
   </si>
 </sst>
 </file>
@@ -135,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -158,16 +176,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -183,6 +218,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -482,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB61CF7-3A18-4889-9E79-6D500EB2D37D}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,12 +538,13 @@
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -541,12 +581,30 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="1">
@@ -563,15 +621,33 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1">
-        <f>SUM(C2:J2) - K2</f>
+        <f t="shared" ref="L2:L18" si="0">SUM(C2:J2) - K2</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1">
@@ -588,15 +664,21 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1">
-        <f>SUM(C3:J3) - K3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="1">
@@ -613,15 +695,21 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1">
-        <f>SUM(C4:J4) - K4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="1">
@@ -636,11 +724,17 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1">
-        <f>SUM(C5:J5) - K5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -653,11 +747,17 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1">
-        <f>SUM(C6:J6) - K6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -670,15 +770,21 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1">
-        <f>SUM(C7:J7) - K7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -687,11 +793,17 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1">
-        <f>SUM(C8:J8) - K8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -704,11 +816,17 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1">
-        <f>SUM(C9:J9) - K9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -721,11 +839,17 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1">
-        <f>SUM(C10:J10) - K10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -738,11 +862,17 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1">
-        <f>SUM(C11:J11) - K11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -755,11 +885,17 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1">
-        <f>SUM(C12:J12) - K12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -772,11 +908,17 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1">
-        <f>SUM(C13:J13) - K13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -789,11 +931,17 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1">
-        <f>SUM(C14:J14) - K14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -806,11 +954,17 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1">
-        <f>SUM(C15:J15) - K15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -823,11 +977,17 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1">
-        <f>SUM(C16:J16) - K16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -840,11 +1000,17 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1">
-        <f>SUM(C17:J17) - K17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -857,16 +1023,18 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1">
-        <f>SUM(C18:J18) - K18</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{5EB61CF7-3A18-4889-9E79-6D500EB2D37D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L18">
-      <sortCondition descending="1" ref="L1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:R1" xr:uid="{5EB61CF7-3A18-4889-9E79-6D500EB2D37D}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
